--- a/Documentation/Sewage/Carga Instalada.xlsx
+++ b/Documentation/Sewage/Carga Instalada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\AVTi\São Rafael\Documentation\Sewage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\AVTi\São Rafael I &amp; II\Documentation\Sewage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,11 +765,11 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F3" s="19">
         <f t="shared" ref="F3:F10" si="0">E3*D3</f>
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -825,14 +825,14 @@
         <v>11</v>
       </c>
       <c r="D6" s="17">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" si="0"/>
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -867,14 +867,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="17">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -888,14 +888,14 @@
         <v>11</v>
       </c>
       <c r="D9" s="17">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="0"/>
-        <v>10.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
@@ -909,14 +909,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="18">
-        <v>0.93</v>
+        <v>0.31</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
-        <v>1.86</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
@@ -929,7 +929,7 @@
       </c>
       <c r="F11" s="21">
         <f>SUM(F3,F5:F10) + (SUM(F2,F4)/1000)</f>
-        <v>38.94</v>
+        <v>34.409999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6">
